--- a/metrics/MAPE/average & upto/Fallo Cardiaco.xlsx
+++ b/metrics/MAPE/average & upto/Fallo Cardiaco.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6173002233447.703</v>
+        <v>5928862071160.29</v>
       </c>
       <c r="C3" t="n">
-        <v>6164060636176.58</v>
+        <v>5828093769273.665</v>
       </c>
       <c r="D3" t="n">
-        <v>5893439142773.231</v>
+        <v>5853594112056.496</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9409358558289.217</v>
+        <v>8936815291370.07</v>
       </c>
       <c r="C4" t="n">
-        <v>9040688255948.211</v>
+        <v>8889346017253.842</v>
       </c>
       <c r="D4" t="n">
-        <v>9002592468557.668</v>
+        <v>8935945960999.018</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83324896593008.39</v>
+        <v>90334622431622.2</v>
       </c>
       <c r="C5" t="n">
-        <v>82153474717396.89</v>
+        <v>78219536854886.59</v>
       </c>
       <c r="D5" t="n">
-        <v>122935376899009</v>
+        <v>82788691430768.95</v>
       </c>
     </row>
   </sheetData>
